--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Itgb2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +528,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7715743674877</v>
+        <v>4.589083666666666</v>
       </c>
       <c r="H2">
-        <v>1.7715743674877</v>
+        <v>13.767251</v>
       </c>
       <c r="I2">
-        <v>0.5125730397583238</v>
+        <v>0.7170542197587623</v>
       </c>
       <c r="J2">
-        <v>0.5125730397583238</v>
+        <v>0.7170542197587624</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>87.55870721002481</v>
+        <v>63.45359300000001</v>
       </c>
       <c r="N2">
-        <v>87.55870721002481</v>
+        <v>190.360779</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3733059480797913</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3733059480797913</v>
       </c>
       <c r="Q2">
-        <v>155.1167613436404</v>
+        <v>291.1938472276144</v>
       </c>
       <c r="R2">
-        <v>155.1167613436404</v>
+        <v>2620.744625048529</v>
       </c>
       <c r="S2">
-        <v>0.5125730397583238</v>
+        <v>0.2676806053316598</v>
       </c>
       <c r="T2">
-        <v>0.5125730397583238</v>
+        <v>0.2676806053316598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.37651200289039</v>
+        <v>4.589083666666666</v>
       </c>
       <c r="H3">
-        <v>1.37651200289039</v>
+        <v>13.767251</v>
       </c>
       <c r="I3">
-        <v>0.3982688813599831</v>
+        <v>0.7170542197587623</v>
       </c>
       <c r="J3">
-        <v>0.3982688813599831</v>
+        <v>0.7170542197587624</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>87.55870721002481</v>
+        <v>0.3851286666666667</v>
       </c>
       <c r="N3">
-        <v>87.55870721002481</v>
+        <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.002265763296377967</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.002265763296377967</v>
       </c>
       <c r="Q3">
-        <v>120.5256114321645</v>
+        <v>1.767387673765111</v>
       </c>
       <c r="R3">
-        <v>120.5256114321645</v>
+        <v>15.906489063886</v>
       </c>
       <c r="S3">
-        <v>0.3982688813599831</v>
+        <v>0.001624675132642345</v>
       </c>
       <c r="T3">
-        <v>0.3982688813599831</v>
+        <v>0.001624675132642345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +655,610 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.308151531488521</v>
+        <v>4.589083666666666</v>
       </c>
       <c r="H4">
-        <v>0.308151531488521</v>
+        <v>13.767251</v>
       </c>
       <c r="I4">
-        <v>0.08915807888169316</v>
+        <v>0.7170542197587623</v>
       </c>
       <c r="J4">
-        <v>0.08915807888169316</v>
+        <v>0.7170542197587624</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.55870721002481</v>
+        <v>106.117587</v>
       </c>
       <c r="N4">
-        <v>87.55870721002481</v>
+        <v>318.352761</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.6243039133020368</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6243039133020368</v>
       </c>
       <c r="Q4">
-        <v>26.98134972192415</v>
+        <v>486.982485247779</v>
       </c>
       <c r="R4">
-        <v>26.98134972192415</v>
+        <v>4382.84236723001</v>
       </c>
       <c r="S4">
-        <v>0.08915807888169316</v>
+        <v>0.447659755445134</v>
       </c>
       <c r="T4">
-        <v>0.08915807888169316</v>
+        <v>0.447659755445134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.589083666666666</v>
+      </c>
+      <c r="H5">
+        <v>13.767251</v>
+      </c>
+      <c r="I5">
+        <v>0.7170542197587623</v>
+      </c>
+      <c r="J5">
+        <v>0.7170542197587624</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.021141</v>
+      </c>
+      <c r="N5">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P5">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q5">
+        <v>0.09701781779700001</v>
+      </c>
+      <c r="R5">
+        <v>0.8731603601730001</v>
+      </c>
+      <c r="S5">
+        <v>8.918384932617794E-05</v>
+      </c>
+      <c r="T5">
+        <v>8.918384932617795E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.495525666666667</v>
+      </c>
+      <c r="H6">
+        <v>4.486577</v>
+      </c>
+      <c r="I6">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="J6">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="N6">
+        <v>190.360779</v>
+      </c>
+      <c r="O6">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="P6">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="Q6">
+        <v>94.89647697372034</v>
+      </c>
+      <c r="R6">
+        <v>854.0682927634831</v>
+      </c>
+      <c r="S6">
+        <v>0.08723380195705753</v>
+      </c>
+      <c r="T6">
+        <v>0.08723380195705754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.495525666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.486577</v>
+      </c>
+      <c r="I7">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="J7">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.155386</v>
+      </c>
+      <c r="O7">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="P7">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="Q7">
+        <v>0.5759698059691112</v>
+      </c>
+      <c r="R7">
+        <v>5.183728253722001</v>
+      </c>
+      <c r="S7">
+        <v>0.0005294615520981707</v>
+      </c>
+      <c r="T7">
+        <v>0.0005294615520981708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.495525666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.486577</v>
+      </c>
+      <c r="I8">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="J8">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>106.117587</v>
+      </c>
+      <c r="N8">
+        <v>318.352761</v>
+      </c>
+      <c r="O8">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="P8">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="Q8">
+        <v>158.701575043233</v>
+      </c>
+      <c r="R8">
+        <v>1428.314175389097</v>
+      </c>
+      <c r="S8">
+        <v>0.145886783251483</v>
+      </c>
+      <c r="T8">
+        <v>0.1458867832514831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.495525666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.486577</v>
+      </c>
+      <c r="I9">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="J9">
+        <v>0.2336791106752255</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.021141</v>
+      </c>
+      <c r="N9">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P9">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q9">
+        <v>0.03161690811900001</v>
+      </c>
+      <c r="R9">
+        <v>0.2845521730710001</v>
+      </c>
+      <c r="S9">
+        <v>2.906391458674615E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.906391458674616E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3153023333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.9459069999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="J10">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>63.45359300000001</v>
+      </c>
+      <c r="N10">
+        <v>190.360779</v>
+      </c>
+      <c r="O10">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="P10">
+        <v>0.3733059480797913</v>
+      </c>
+      <c r="Q10">
+        <v>20.00706593128367</v>
+      </c>
+      <c r="R10">
+        <v>180.063593381553</v>
+      </c>
+      <c r="S10">
+        <v>0.018391540791074</v>
+      </c>
+      <c r="T10">
+        <v>0.018391540791074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3153023333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.9459069999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="J11">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3851286666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.155386</v>
+      </c>
+      <c r="O11">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="P11">
+        <v>0.002265763296377967</v>
+      </c>
+      <c r="Q11">
+        <v>0.1214319672335555</v>
+      </c>
+      <c r="R11">
+        <v>1.092887705102</v>
+      </c>
+      <c r="S11">
+        <v>0.000111626611637452</v>
+      </c>
+      <c r="T11">
+        <v>0.000111626611637452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3153023333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.9459069999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="J12">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>106.117587</v>
+      </c>
+      <c r="N12">
+        <v>318.352761</v>
+      </c>
+      <c r="O12">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="P12">
+        <v>0.6243039133020368</v>
+      </c>
+      <c r="Q12">
+        <v>33.45912278880299</v>
+      </c>
+      <c r="R12">
+        <v>301.132105099227</v>
+      </c>
+      <c r="S12">
+        <v>0.0307573746054198</v>
+      </c>
+      <c r="T12">
+        <v>0.03075737460541981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3153023333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.9459069999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="J13">
+        <v>0.04926666956601224</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.021141</v>
+      </c>
+      <c r="N13">
+        <v>0.06342300000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="P13">
+        <v>0.0001243753217939112</v>
+      </c>
+      <c r="Q13">
+        <v>0.006665806629</v>
+      </c>
+      <c r="R13">
+        <v>0.059992259661</v>
+      </c>
+      <c r="S13">
+        <v>6.127557880987061E-06</v>
+      </c>
+      <c r="T13">
+        <v>6.127557880987062E-06</v>
       </c>
     </row>
   </sheetData>
